--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -391,11 +391,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>15/02/1997</t>
   </si>
@@ -56,10 +56,22 @@
     <t>Nguyễn Văn B</t>
   </si>
   <si>
-    <t>https://images.unsplash.com/photo-1544717305-2782549b5136?q=80&amp;w=400</t>
-  </si>
-  <si>
     <t>Nguyễn Văn C</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Tài</t>
+  </si>
+  <si>
+    <t>Tài Cris</t>
+  </si>
+  <si>
+    <t>Thành viên</t>
+  </si>
+  <si>
+    <t>Siêu đầu bếp Chánh Tâm</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_ANH_TAI.jpg</t>
   </si>
 </sst>
 </file>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -438,16 +450,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -458,16 +468,14 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -478,16 +486,14 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -498,18 +504,30 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>15/02/1997</t>
   </si>
@@ -53,18 +53,9 @@
     <t>Gieo mầm thiện tâm trên mảnh đất cố đô.</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
     <t>Nguyễn Văn C</t>
   </si>
   <si>
-    <t>Nguyễn Anh Tài</t>
-  </si>
-  <si>
-    <t>Tài Cris</t>
-  </si>
-  <si>
     <t>Thành viên</t>
   </si>
   <si>
@@ -72,6 +63,30 @@
   </si>
   <si>
     <t>./images/NGUYEN_ANH_TAI.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Uyên</t>
+  </si>
+  <si>
+    <t>Trần Thị Xuân Diệu</t>
+  </si>
+  <si>
+    <t>Ban chấp hành</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Tài (Tài Cris)</t>
+  </si>
+  <si>
+    <t>Tâm An</t>
+  </si>
+  <si>
+    <t>Chánh Tâm Nhỏ</t>
+  </si>
+  <si>
+    <t>./images/TRAN_THI_XUAN_DIEU.jpg</t>
+  </si>
+  <si>
+    <t>Nhà Thơ</t>
   </si>
 </sst>
 </file>
@@ -400,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -439,25 +454,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -475,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -493,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -511,19 +528,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\04_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="2025"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -139,8 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,37 +201,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,10 +241,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -279,71 +282,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,7 +374,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -394,11 +397,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -407,13 +410,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -423,7 +426,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -432,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -441,7 +444,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -449,10 +452,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -523,20 +526,21 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="46.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="73.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.53125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.59765625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -580,7 +584,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -603,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -626,7 +630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -649,7 +653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -672,7 +676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -693,7 +697,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -714,7 +718,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -735,7 +739,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -756,7 +760,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\04_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="2025"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -57,7 +52,7 @@
     <t>Nhật Uyên xinh đẹp</t>
   </si>
   <si>
-    <t>Lý Thanh Tùng</t>
+    <t>Lý Thanh Tùng (Tbh)</t>
   </si>
   <si>
     <t>Tùng</t>
@@ -66,13 +61,13 @@
     <t>Chánh Tâm Nhỏ, Hít Thở Mỉm Cười, Tâm An</t>
   </si>
   <si>
-    <t>Tbh</t>
+    <t>Siêu hướng nội</t>
   </si>
   <si>
     <t>./images/LY_THANH_TUNG.jpg</t>
   </si>
   <si>
-    <t>Nguyễn Đức Nguyên Thông</t>
+    <t>Nguyễn Đức Nguyên Thông (Thúng)</t>
   </si>
   <si>
     <t>Thông</t>
@@ -136,6 +131,36 @@
   </si>
   <si>
     <t>Cá thích chơi</t>
+  </si>
+  <si>
+    <t>./images/HO_THI_CHAU_LINH.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thị Thuận Hóa</t>
+  </si>
+  <si>
+    <t>Hóa</t>
+  </si>
+  <si>
+    <t>Trưởng ban tài chính</t>
+  </si>
+  <si>
+    <t>Thích Yêu Thương</t>
+  </si>
+  <si>
+    <t>Nàng thơ cây cỏ</t>
+  </si>
+  <si>
+    <t>Lê Văn Huy</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Huy Le</t>
+  </si>
+  <si>
+    <t>./images/LE_VAN_HUY.jpg</t>
   </si>
   <si>
     <t>Test</t>
@@ -144,8 +169,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,18 +181,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -200,37 +220,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -241,10 +259,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -282,71 +300,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,7 +392,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -397,11 +415,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -410,13 +428,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -426,7 +444,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -435,7 +453,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -444,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -452,10 +470,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -526,21 +544,20 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.53125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="73.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -584,7 +601,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -607,8 +624,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -630,8 +647,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -653,7 +670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -676,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -695,56 +712,60 @@
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -756,16 +777,16 @@
         <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -777,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\04_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="2025"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -163,14 +168,307 @@
     <t>./images/LE_VAN_HUY.jpg</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Bạch Thị Thu Thảo (Tabi)</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Như Ngọc</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Hít Thở Mỉm Cười</t>
+  </si>
+  <si>
+    <t>Shark Long</t>
+  </si>
+  <si>
+    <t>Đậu Đoàn Hoàn Mỹ</t>
+  </si>
+  <si>
+    <t>Trưởng ban văn nghệ</t>
+  </si>
+  <si>
+    <t>Trưởng ban thỉnh sư</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>Nhỏ mà có võ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huỳnh Thanh</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Trưởng ban hậu cần</t>
+  </si>
+  <si>
+    <t>Đa sắc</t>
+  </si>
+  <si>
+    <t>Phan Thị Cẩm Nhi</t>
+  </si>
+  <si>
+    <t>Nhi</t>
+  </si>
+  <si>
+    <t>Trưởng ban hoạt náo</t>
+  </si>
+  <si>
+    <t>Nhuận Hỷ</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Trương Thị Kim Chi (Xuxuchichi)</t>
+  </si>
+  <si>
+    <t>Ban cố vấn</t>
+  </si>
+  <si>
+    <t>Thím</t>
+  </si>
+  <si>
+    <t>Lê Thị Nhật (Nước Lọc)</t>
+  </si>
+  <si>
+    <t>Nhật</t>
+  </si>
+  <si>
+    <t>Cô Lọc</t>
+  </si>
+  <si>
+    <t>Trương Minh Ý</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>Hít Thở Mỉm Cười, Chánh Tâm Nhỏ</t>
+  </si>
+  <si>
+    <t>Trương Thị Kim Cương</t>
+  </si>
+  <si>
+    <t>Cương</t>
+  </si>
+  <si>
+    <t>Ba Ky</t>
+  </si>
+  <si>
+    <t>Chị Cương</t>
+  </si>
+  <si>
+    <t>Trần Thị Lành</t>
+  </si>
+  <si>
+    <t>Lành</t>
+  </si>
+  <si>
+    <t>Lê Thị Bích Tiên</t>
+  </si>
+  <si>
+    <t>Tiên</t>
+  </si>
+  <si>
+    <t>Lành Trần</t>
+  </si>
+  <si>
+    <t>Giọng to nhất Chánh Tâm</t>
+  </si>
+  <si>
+    <t>Thảo Tabi</t>
+  </si>
+  <si>
+    <t>./images/USER.png</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Huy</t>
+  </si>
+  <si>
+    <t>Chú Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Khánh Hà</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>oyoui</t>
+  </si>
+  <si>
+    <t>Trần Xuân Trung</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Ánh</t>
+  </si>
+  <si>
+    <t>Én</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Nhàn</t>
+  </si>
+  <si>
+    <t>Nhàn</t>
+  </si>
+  <si>
+    <t>Trần Thị Như Giao</t>
+  </si>
+  <si>
+    <t>Giao</t>
+  </si>
+  <si>
+    <t>Giao Trần</t>
+  </si>
+  <si>
+    <t>Huỳnh Nguyễn Tâm Nhã</t>
+  </si>
+  <si>
+    <t>Nhã</t>
+  </si>
+  <si>
+    <t>Tôm Nhõ</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Duyên (Xô)</t>
+  </si>
+  <si>
+    <t>Duyên</t>
+  </si>
+  <si>
+    <t>Xô Nguyễn</t>
+  </si>
+  <si>
+    <t>Phan Việt Thi</t>
+  </si>
+  <si>
+    <t>Thi</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồ Thảo Nhi (Pho)</t>
+  </si>
+  <si>
+    <t>Pho</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhật Trâm (Na)</t>
+  </si>
+  <si>
+    <t>Trâm</t>
+  </si>
+  <si>
+    <t>Nhat Tram</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Diệu Ái</t>
+  </si>
+  <si>
+    <t>Ái</t>
+  </si>
+  <si>
+    <t>Dương Thị Thu Huyền</t>
+  </si>
+  <si>
+    <t>Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Luýt</t>
+  </si>
+  <si>
+    <t>Luýt</t>
+  </si>
+  <si>
+    <t>Nhất Tam</t>
+  </si>
+  <si>
+    <t>Trương Thị Phương Anh (Bơ Cena)</t>
+  </si>
+  <si>
+    <t>Chị Bơ</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Kỳ Duyên</t>
+  </si>
+  <si>
+    <t>Kỳ Duyên</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Định Hưng (Toni)</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Toni Định</t>
+  </si>
+  <si>
+    <t>./images/BACH_THI_THU_THAO.jpg</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_THUAN_HOA.jpg</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_THI_NHU_NGOC.jpg</t>
+  </si>
+  <si>
+    <t>Phan Thị Phương Anh (Sô)</t>
+  </si>
+  <si>
+    <t>Sony Phan</t>
+  </si>
+  <si>
+    <t>./images/PHAN_THI_PHUONG_ANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_BICH_TIEN.jpg</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_THI_HUYNH_THANH.jpg</t>
+  </si>
+  <si>
+    <t>Hậu cần khó thì có chị Ái</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,34 +519,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,10 +556,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -300,71 +597,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,7 +689,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -415,11 +712,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -428,13 +725,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,7 +741,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -453,7 +750,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -462,7 +759,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,10 +767,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -542,22 +839,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="73.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.9296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.59765625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -599,9 +898,11 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="G2" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -624,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -647,160 +948,833 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="B33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -12,14 +12,19 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet name="2026" sheetId="2" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="163">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +269,6 @@
     <t>Ba Ky</t>
   </si>
   <si>
-    <t>Chị Cương</t>
-  </si>
-  <si>
     <t>Trần Thị Lành</t>
   </si>
   <si>
@@ -463,6 +465,54 @@
   </si>
   <si>
     <t>Hậu cần khó thì có chị Ái</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhật Anh</t>
+  </si>
+  <si>
+    <t>bạn thân Minh Anh</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_THI_NHAT_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Đặng Hoàng Mỹ Chân</t>
+  </si>
+  <si>
+    <t>Chân</t>
+  </si>
+  <si>
+    <t>Chân Thiện Mỹ</t>
+  </si>
+  <si>
+    <t>./images/DANG_HOANG_MY_CHAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/TRUONG_THI_KIM_CHI.jpg</t>
+  </si>
+  <si>
+    <t>Mẹ Khoai, Đậu, Cá Heo</t>
+  </si>
+  <si>
+    <t>./images/TRUONG_THI_KIM_CUONG.jpg</t>
+  </si>
+  <si>
+    <t>./images/PHAN_THI_CAM_NHI.jpg</t>
+  </si>
+  <si>
+    <t>Nhuận Đức</t>
+  </si>
+  <si>
+    <t>Nhuận Niệm</t>
+  </si>
+  <si>
+    <t>Nhuận Mỹ</t>
+  </si>
+  <si>
+    <t>./images/DAU_DOAN_HOAN_MY.jpg</t>
+  </si>
+  <si>
+    <t>./images/DUONG_THI_THU_HUYEN.jpg</t>
   </si>
 </sst>
 </file>
@@ -518,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -534,6 +584,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,13 +899,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G6">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A1:G1">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -899,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -968,7 +1222,7 @@
         <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -991,7 +1245,7 @@
         <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1014,7 +1268,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1037,7 +1291,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1060,7 +1314,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1082,7 +1336,7 @@
       <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1103,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1128,7 +1382,7 @@
       <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1137,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>46</v>
@@ -1149,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1160,10 +1414,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>25</v>
@@ -1172,10 +1426,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1183,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>36</v>
@@ -1195,10 +1449,10 @@
         <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1206,10 +1460,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>25</v>
@@ -1218,10 +1472,10 @@
         <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1229,10 +1483,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>25</v>
@@ -1241,10 +1495,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1252,10 +1506,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>25</v>
@@ -1264,10 +1518,10 @@
         <v>53</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1275,10 +1529,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>25</v>
@@ -1287,10 +1541,10 @@
         <v>26</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1298,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>25</v>
@@ -1310,10 +1564,10 @@
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1321,10 +1575,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>25</v>
@@ -1333,10 +1587,10 @@
         <v>26</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1344,10 +1598,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>25</v>
@@ -1356,10 +1610,10 @@
         <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1367,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>25</v>
@@ -1379,10 +1633,10 @@
         <v>43</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1390,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>65</v>
@@ -1402,10 +1656,10 @@
         <v>37</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1413,10 +1667,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>25</v>
@@ -1425,10 +1679,10 @@
         <v>37</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1436,10 +1690,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -1448,10 +1702,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1459,10 +1713,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>25</v>
@@ -1471,10 +1725,10 @@
         <v>32</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1482,10 +1736,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -1494,10 +1748,10 @@
         <v>32</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1505,10 +1759,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>25</v>
@@ -1517,10 +1771,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1528,10 +1782,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>25</v>
@@ -1540,10 +1794,10 @@
         <v>53</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1551,22 +1805,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1589,7 +1843,7 @@
         <v>71</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1612,7 +1866,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1635,7 +1889,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1655,10 +1909,10 @@
         <v>53</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1666,10 +1920,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>70</v>
@@ -1678,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1689,10 +1943,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>70</v>
@@ -1701,10 +1955,10 @@
         <v>37</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1712,10 +1966,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>25</v>
@@ -1724,10 +1978,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1772,11 +2026,58 @@
       <c r="F40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="8" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="2" r:id="rId1"/>
@@ -901,9 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3:G3"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1094,9 +1094,9 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10:G10"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -513,6 +513,36 @@
   </si>
   <si>
     <t>./images/DUONG_THI_THU_HUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Ánh Nhi</t>
+  </si>
+  <si>
+    <t>./images/TRAN_NGUYEN_ANH_NHI.jpg</t>
+  </si>
+  <si>
+    <t>./images/TRAN_NGUYEN_ANH_NGUYET.jpg</t>
+  </si>
+  <si>
+    <t>Nguyệt</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Ánh Nguyệt</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Bảo Uyên</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_PHAN_BAO_UYEN.jpg</t>
+  </si>
+  <si>
+    <t>Kiên nhẫn là dấu ấn của Bảo Uyên</t>
+  </si>
+  <si>
+    <t>Em Ánh Nguyệt</t>
+  </si>
+  <si>
+    <t>Chị Ánh Nhi</t>
   </si>
 </sst>
 </file>
@@ -899,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -911,7 +941,7 @@
     <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,22 +1084,94 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
       <c r="B7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1094,7 +1196,7 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\04_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\CODE_CT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -543,6 +543,18 @@
   </si>
   <si>
     <t>Chị Ánh Nhi</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Phan Lê Xuân Hiếu (Híu)</t>
+  </si>
+  <si>
+    <t>Nhuận Hòa</t>
+  </si>
+  <si>
+    <t>./images/PHAN_LE_XUAN_HIEU.jpg</t>
   </si>
 </sst>
 </file>
@@ -598,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,6 +638,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,23 +944,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18:F19"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1037,7 +1052,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1129,7 +1144,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1173,6 +1188,29 @@
       </c>
       <c r="G10" s="8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1196,23 +1234,23 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.9296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1258,7 +1296,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1281,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1304,7 +1342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1327,7 +1365,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1350,7 +1388,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1373,7 +1411,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1396,7 +1434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1419,7 +1457,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1442,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1465,7 +1503,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1488,7 +1526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1511,7 +1549,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1534,7 +1572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1557,7 +1595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1580,7 +1618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1603,7 +1641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1626,7 +1664,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1649,7 +1687,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1672,7 +1710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1695,7 +1733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1718,7 +1756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1741,7 +1779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1764,7 +1802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1787,7 +1825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1810,7 +1848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1833,7 +1871,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1856,7 +1894,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1879,7 +1917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1902,7 +1940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1925,7 +1963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1948,7 +1986,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1971,7 +2009,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1994,7 +2032,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2017,7 +2055,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2040,7 +2078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2063,7 +2101,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2086,7 +2124,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2109,7 +2147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2132,7 +2170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2155,7 +2193,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lt_tung\99_LY_THANH_TUNG\git\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\CODE_CT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>&lt;s&gt;yesterday&lt;/s&gt; NOW &lt;del&gt;tomorrow&lt;/del&gt;</t>
+  </si>
+  <si>
+    <t>./images/HUYNH_NGUYEN_TAM_NHA.jpg</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1077,15 +1083,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1131,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,7 +1165,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1177,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1246,7 +1257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1359,6 +1370,29 @@
       </c>
       <c r="G12" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1373,17 +1407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1498,7 +1530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1521,7 +1553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1544,7 +1576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1590,7 +1622,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1636,7 +1668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -1659,7 +1691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1682,7 +1714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -1705,7 +1737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -1728,7 +1760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1751,7 +1783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -1774,7 +1806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -1797,7 +1829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -1820,7 +1852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1843,7 +1875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -1866,7 +1898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -1912,7 +1944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1935,7 +1967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -1958,7 +1990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -1981,7 +2013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2004,7 +2036,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -2027,7 +2059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -2050,7 +2082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -2073,7 +2105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -2096,7 +2128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -2119,7 +2151,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -2142,7 +2174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -2165,7 +2197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -2188,7 +2220,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -2211,7 +2243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -2234,7 +2266,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -2257,7 +2289,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>213</v>
       </c>
@@ -2280,7 +2312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>214</v>
       </c>
@@ -2303,7 +2335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>215</v>
       </c>
@@ -2326,7 +2358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>216</v>
       </c>
@@ -2349,7 +2381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -2372,7 +2404,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -2395,7 +2427,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -2418,7 +2450,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -2441,7 +2473,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>225</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -707,6 +707,10 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./images/NGUYEN_DANG_HUY.jpg
+</t>
   </si>
 </sst>
 </file>
@@ -742,8 +746,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1407,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1696,19 +1701,19 @@
         <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
@@ -2110,22 +2115,22 @@
         <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2499,7 +2504,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G11 B22:G47 A13:G21 A12:E12 G12" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G11 B22:G30 A14:G21 A12:E12 G12 A13 B32:G47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1412,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G11 B22:G30 A14:G21 A12:E12 G12 A13 B32:G47" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G11 B22:G30 A14:G18 A12:E12 G12 A13 B32:G47 A20:G21 A19:F19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\CODE_CT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\04_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Nhật Uyên xinh đẹp</t>
   </si>
   <si>
-    <t>./images/USER.png</t>
-  </si>
-  <si>
     <t>Lý Thanh Tùng (Tbh)</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>Trưởng ban hậu cần</t>
   </si>
   <si>
-    <t>Má hồng</t>
-  </si>
-  <si>
     <t>./images/NGUYEN_THI_HUYNH_THANH.jpg</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>Nhã</t>
   </si>
   <si>
-    <t>Tôm Nhõ</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -704,13 +695,34 @@
   </si>
   <si>
     <t>./images/HUYNH_NGUYEN_TAM_NHA.jpg</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t xml:space="preserve">./images/NGUYEN_DANG_HUY.jpg
 </t>
+  </si>
+  <si>
+    <t>Lớp trưởng 2019-2023</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_NGOC_KY_DUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Má hồng 😳</t>
+  </si>
+  <si>
+    <t>Bộ trưởng bộ ngoại giao</t>
+  </si>
+  <si>
+    <t>🍓</t>
+  </si>
+  <si>
+    <t>Hồ Tâm Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
+  </si>
+  <si>
+    <t>Trưởng ban truyền thông 2022-2024</t>
   </si>
 </sst>
 </file>
@@ -1088,20 +1100,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,107 +1138,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1233,67 +1247,67 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1302,125 +1316,245 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:G12 A1:G1 B2:G2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.8125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1462,34 +1596,31 @@
       <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
       <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1512,122 +1643,122 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1650,15 +1781,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1667,21 +1798,21 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1690,44 +1821,41 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1736,18 +1864,15 @@
         <v>63</v>
       </c>
       <c r="F14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
         <v>114</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1759,21 +1884,18 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
         <v>117</v>
       </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>118</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1782,21 +1904,18 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>124</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1805,21 +1924,18 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
         <v>125</v>
       </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1828,21 +1944,18 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
         <v>129</v>
       </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1851,21 +1964,21 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1874,18 +1987,15 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1897,21 +2007,18 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
         <v>140</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" t="s">
-        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1920,21 +2027,18 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>147</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1943,18 +2047,15 @@
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1966,21 +2067,18 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" t="s">
-        <v>154</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -1989,21 +2087,18 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>158</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -2012,21 +2107,18 @@
         <v>63</v>
       </c>
       <c r="F26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
         <v>159</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -2035,21 +2127,21 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
         <v>163</v>
       </c>
-      <c r="G27" t="s">
+      <c r="C28" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -2058,18 +2150,15 @@
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2081,21 +2170,18 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -2104,21 +2190,21 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -2127,156 +2213,147 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
         <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s">
-        <v>183</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
         <v>184</v>
       </c>
-      <c r="G32" t="s">
+      <c r="C33" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>188</v>
-      </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
       </c>
       <c r="F33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
         <v>189</v>
       </c>
-      <c r="G33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" t="s">
         <v>190</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>191</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
         <v>192</v>
       </c>
-      <c r="D34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B35" t="s">
         <v>193</v>
       </c>
-      <c r="F34" t="s">
+      <c r="C35" t="s">
         <v>194</v>
       </c>
-      <c r="G34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" t="s">
-        <v>197</v>
-      </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
         <v>198</v>
       </c>
-      <c r="G35" t="s">
+      <c r="C36" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" t="s">
-        <v>202</v>
-      </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
         <v>203</v>
       </c>
-      <c r="G36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" t="s">
-        <v>206</v>
-      </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
         <v>207</v>
-      </c>
-      <c r="G37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>210</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -2288,15 +2365,15 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -2317,9 +2394,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
@@ -2340,9 +2417,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -2363,9 +2440,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -2386,9 +2463,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2406,12 +2483,12 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -2429,12 +2506,12 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2452,12 +2529,12 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -2475,12 +2552,12 @@
         <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
@@ -2499,12 +2576,26 @@
       </c>
       <c r="G47" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G11 B22:G30 A14:G18 A12:E12 G12 A13 B32:G47 A20:G21 A19:F19" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B27:G27 A14:F18 A12:E12 G12 A13 B32:G32 A20:F21 A19:E19 B37:G47 B36:C36 E36:F36 B30:F30 A9:G11 A8:E8 G8 B35:G35 B34:F34 B33:F33 B22:F26 A3:G7 A2:F2 B28:F29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="236">
   <si>
     <t>id</t>
   </si>
@@ -723,6 +723,12 @@
   </si>
   <si>
     <t>Trưởng ban truyền thông 2022-2024</t>
+  </si>
+  <si>
+    <t>Chú rể Huy</t>
+  </si>
+  <si>
+    <t>Cô dâu Chi</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1109,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1155,7 +1161,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>225</v>
@@ -1178,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
         <v>182</v>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="236">
   <si>
     <t>id</t>
   </si>
@@ -331,9 +331,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>Lê Văn Huy</t>
-  </si>
-  <si>
     <t>Huy</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
   </si>
   <si>
     <t>42</t>
-  </si>
-  <si>
-    <t>./images/TRAN_THI_XUAN_DIEU.jpg_x000D_</t>
   </si>
   <si>
     <t>43</t>
@@ -716,9 +710,6 @@
     <t>🍓</t>
   </si>
   <si>
-    <t>Hồ Tâm Nguyên</t>
-  </si>
-  <si>
     <t>Nguyên</t>
   </si>
   <si>
@@ -729,6 +720,15 @@
   </si>
   <si>
     <t>Cô dâu Chi</t>
+  </si>
+  <si>
+    <t>Hồ Tâm Nguyên (Nguyên Hồ)</t>
+  </si>
+  <si>
+    <t>Lê Văn Huy (Huy Lê)</t>
+  </si>
+  <si>
+    <t>Sâu sắc</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1149,22 +1149,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -1172,22 +1172,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
         <v>178</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>179</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -1218,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1230,10 +1230,10 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -1448,10 +1448,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>129</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1460,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -1477,7 +1477,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
@@ -1494,22 +1494,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
@@ -1545,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1735,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
         <v>93</v>
@@ -1815,10 +1815,10 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
         <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1827,41 +1827,41 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1870,15 +1870,15 @@
         <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
         <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1890,18 +1890,18 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1910,18 +1910,18 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1930,18 +1930,18 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
         <v>124</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>126</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1950,18 +1950,18 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1970,21 +1970,21 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1993,15 +1993,15 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -2013,18 +2013,18 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2033,18 +2033,18 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>144</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -2053,15 +2053,15 @@
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
         <v>146</v>
-      </c>
-      <c r="B24" t="s">
-        <v>147</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -2073,18 +2073,18 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
         <v>149</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>151</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -2093,18 +2093,18 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
         <v>153</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>154</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -2113,18 +2113,18 @@
         <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>159</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -2133,21 +2133,21 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
         <v>160</v>
-      </c>
-      <c r="G27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
         <v>162</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>163</v>
-      </c>
-      <c r="C28" t="s">
-        <v>164</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -2156,15 +2156,15 @@
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" t="s">
-        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2176,18 +2176,18 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="B30" t="s">
-        <v>170</v>
-      </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -2196,21 +2196,21 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -2219,147 +2219,147 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
         <v>177</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>178</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>179</v>
-      </c>
-      <c r="D32" t="s">
-        <v>180</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" t="s">
         <v>181</v>
-      </c>
-      <c r="G32" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
         <v>183</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>184</v>
       </c>
-      <c r="C33" t="s">
-        <v>185</v>
-      </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s">
         <v>187</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>188</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" t="s">
         <v>189</v>
       </c>
-      <c r="D34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>190</v>
-      </c>
-      <c r="F34" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
         <v>192</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>193</v>
       </c>
-      <c r="C35" t="s">
-        <v>194</v>
-      </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
         <v>195</v>
-      </c>
-      <c r="G35" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>198</v>
       </c>
-      <c r="C36" t="s">
-        <v>199</v>
-      </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
         <v>201</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>202</v>
       </c>
-      <c r="C37" t="s">
-        <v>203</v>
-      </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" t="s">
         <v>204</v>
-      </c>
-      <c r="G37" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
         <v>206</v>
-      </c>
-      <c r="B38" t="s">
-        <v>207</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -2371,15 +2371,15 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" t="s">
         <v>208</v>
-      </c>
-      <c r="G38" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -2471,22 +2471,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
         <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>215</v>
@@ -2494,22 +2494,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
         <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>217</v>
@@ -2517,22 +2517,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
         <v>219</v>
@@ -2540,68 +2540,51 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B27:G27 A14:F18 A12:E12 G12 A13 B32:G32 A20:F21 A19:E19 B37:G47 B36:C36 E36:F36 B30:F30 A9:G11 A8:E8 G8 B35:G35 B34:F34 B33:F33 B22:F26 A3:G7 A2:F2 B28:F29" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B27:G27 A14:F18 A12 G12 A13 B32:G32 A20:F21 A19:E19 B37:G42 B36:C36 E36:F36 B30:F30 A9:G11 A8:E8 G8 B35:G35 B34:F34 B33:F33 B22:F26 A3:G7 A2:F2 B28:F29 B43:G46 C12:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -14,13 +14,30 @@
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
     <sheet name="2025" sheetId="2" r:id="rId2"/>
+    <sheet name="2024" sheetId="3" r:id="rId3"/>
+    <sheet name="2023" sheetId="4" r:id="rId4"/>
+    <sheet name="2022" sheetId="5" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId6"/>
+    <sheet name="2020" sheetId="7" r:id="rId7"/>
+    <sheet name="2019" sheetId="8" r:id="rId8"/>
+    <sheet name="2018" sheetId="9" r:id="rId9"/>
+    <sheet name="2017" sheetId="10" r:id="rId10"/>
+    <sheet name="2016" sheetId="11" r:id="rId11"/>
+    <sheet name="2015" sheetId="12" r:id="rId12"/>
+    <sheet name="2014" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2012" sheetId="15" r:id="rId15"/>
+    <sheet name="2011" sheetId="16" r:id="rId16"/>
+    <sheet name="2010" sheetId="17" r:id="rId17"/>
+    <sheet name="2009" sheetId="18" r:id="rId18"/>
+    <sheet name="2008" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -728,7 +745,28 @@
     <t>Lê Văn Huy (Huy Lê)</t>
   </si>
   <si>
-    <t>Sâu sắc</t>
+    <t>Phan Đình Thành Nhân</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Cu em</t>
+  </si>
+  <si>
+    <t>Người anh sâu sắc</t>
+  </si>
+  <si>
+    <t>Lê Thị Minh Ngọc</t>
+  </si>
+  <si>
+    <t>Cá nọc</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_MINH_NGOC.jpg</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -1514,7 +1552,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -1533,6 +1571,29 @@
       </c>
       <c r="G18" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1543,12 +1604,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2578,7 +2761,30 @@
         <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2587,4 +2793,573 @@
     <ignoredError sqref="A1:G1 B27:G27 A14:F18 A12 G12 A13 B32:G32 A20:F21 A19:E19 B37:G42 B36:C36 E36:F36 B30:F30 A9:G11 A8:E8 G8 B35:G35 B34:F34 B33:F33 B22:F26 A3:G7 A2:F2 B28:F29 B43:G46 C12:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>